--- a/Mini_project_German_Learning_Tool/test.xlsx
+++ b/Mini_project_German_Learning_Tool/test.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -50,12 +50,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,15 +346,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E4"/>
+  <dimension ref="C1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="2.15625" customWidth="true"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="1">
+      <c r="C1" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>2</v>
       </c>
@@ -355,7 +378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="4" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>5</v>
       </c>
